--- a/data/bulk/out/AAA_f14_text.xlsx_out.xlsx
+++ b/data/bulk/out/AAA_f14_text.xlsx_out.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449" uniqueCount="648">
   <si>
     <t>UNIQUEID</t>
   </si>
@@ -698,7 +698,7 @@
     <t>Desk-based Assessment</t>
   </si>
   <si>
-    <t>2022-07-26</t>
+    <t>2022-08-12</t>
   </si>
   <si>
     <t>Yes</t>
@@ -1925,58 +1925,37 @@
     <t>High</t>
   </si>
   <si>
-    <t>E02N36-23</t>
-  </si>
-  <si>
-    <t>E03N36-14</t>
-  </si>
-  <si>
-    <t>E03N36-21</t>
-  </si>
-  <si>
-    <t>E03N36-12</t>
-  </si>
-  <si>
-    <t>E03N35-43</t>
-  </si>
-  <si>
-    <t>E03N36-23</t>
-  </si>
-  <si>
-    <t>E02N36-24</t>
-  </si>
-  <si>
-    <t>E03N36-22</t>
-  </si>
-  <si>
-    <t>E03N36-31</t>
-  </si>
-  <si>
-    <t>E02N36-22</t>
-  </si>
-  <si>
-    <t>E03N36-11</t>
-  </si>
-  <si>
-    <t>E02N36-21</t>
-  </si>
-  <si>
-    <t>E03N36-13</t>
-  </si>
-  <si>
     <t>Algeria</t>
   </si>
   <si>
+    <t>Classical/Protohistoric/Pre-Islamic (North Africa)</t>
+  </si>
+  <si>
+    <t>Possible</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Church/Chapel</t>
+  </si>
+  <si>
+    <t>Fort/Fortress/Castle</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>Tomb/Grave/Burial</t>
+  </si>
+  <si>
+    <t>House/Dwelling</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>Not Applicable</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Tomb/Grave/Burial</t>
   </si>
 </sst>
 </file>
@@ -2385,11 +2364,9 @@
         <v>634</v>
       </c>
       <c r="X2"/>
-      <c r="Y2" t="s">
+      <c r="Y2"/>
+      <c r="Z2" t="s">
         <v>637</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>650</v>
       </c>
       <c r="AA2"/>
       <c r="AB2"/>
@@ -2402,10 +2379,10 @@
       </c>
       <c r="AH2"/>
       <c r="AI2" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ2" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK2"/>
       <c r="AL2"/>
@@ -2419,7 +2396,7 @@
       <c r="AT2"/>
       <c r="AU2"/>
       <c r="AV2" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW2" t="s">
         <v>506</v>
@@ -2427,7 +2404,9 @@
       <c r="AX2"/>
       <c r="AY2"/>
       <c r="AZ2"/>
-      <c r="BA2"/>
+      <c r="BA2" t="s">
+        <v>641</v>
+      </c>
       <c r="BB2"/>
       <c r="BC2"/>
       <c r="BD2"/>
@@ -2441,19 +2420,19 @@
       <c r="BL2"/>
       <c r="BM2"/>
       <c r="BN2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS2"/>
       <c r="BT2"/>
@@ -2463,13 +2442,13 @@
       <c r="BX2"/>
       <c r="BY2"/>
       <c r="BZ2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA2" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC2"/>
       <c r="CD2"/>
@@ -2653,11 +2632,9 @@
         <v>634</v>
       </c>
       <c r="X4"/>
-      <c r="Y4" t="s">
-        <v>638</v>
-      </c>
+      <c r="Y4"/>
       <c r="Z4" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA4"/>
       <c r="AB4"/>
@@ -2670,10 +2647,10 @@
       </c>
       <c r="AH4"/>
       <c r="AI4" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ4" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK4"/>
       <c r="AL4"/>
@@ -2705,19 +2682,19 @@
       <c r="BL4"/>
       <c r="BM4"/>
       <c r="BN4" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO4" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP4" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ4" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR4" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS4"/>
       <c r="BT4"/>
@@ -2727,13 +2704,13 @@
       <c r="BX4"/>
       <c r="BY4"/>
       <c r="BZ4" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA4" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB4" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC4"/>
       <c r="CD4"/>
@@ -2810,11 +2787,9 @@
         <v>634</v>
       </c>
       <c r="X5"/>
-      <c r="Y5" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y5"/>
       <c r="Z5" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA5"/>
       <c r="AB5"/>
@@ -2858,19 +2833,19 @@
       <c r="BL5"/>
       <c r="BM5"/>
       <c r="BN5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR5" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS5"/>
       <c r="BT5"/>
@@ -2880,13 +2855,13 @@
       <c r="BX5"/>
       <c r="BY5"/>
       <c r="BZ5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB5" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC5"/>
       <c r="CD5"/>
@@ -3070,11 +3045,9 @@
         <v>635</v>
       </c>
       <c r="X7"/>
-      <c r="Y7" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y7"/>
       <c r="Z7" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA7"/>
       <c r="AB7"/>
@@ -3118,19 +3091,19 @@
       <c r="BL7"/>
       <c r="BM7"/>
       <c r="BN7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS7"/>
       <c r="BT7"/>
@@ -3140,13 +3113,13 @@
       <c r="BX7"/>
       <c r="BY7"/>
       <c r="BZ7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC7"/>
       <c r="CD7"/>
@@ -3330,11 +3303,9 @@
         <v>635</v>
       </c>
       <c r="X9"/>
-      <c r="Y9" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y9"/>
       <c r="Z9" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA9"/>
       <c r="AB9"/>
@@ -3378,19 +3349,19 @@
       <c r="BL9"/>
       <c r="BM9"/>
       <c r="BN9" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO9" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP9" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ9" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR9" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS9"/>
       <c r="BT9"/>
@@ -3400,13 +3371,13 @@
       <c r="BX9"/>
       <c r="BY9"/>
       <c r="BZ9" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA9" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB9" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC9"/>
       <c r="CD9"/>
@@ -3487,11 +3458,9 @@
         <v>635</v>
       </c>
       <c r="X10"/>
-      <c r="Y10" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y10"/>
       <c r="Z10" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA10"/>
       <c r="AB10"/>
@@ -3517,7 +3486,7 @@
       <c r="AT10"/>
       <c r="AU10"/>
       <c r="AV10" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW10" t="s">
         <v>506</v>
@@ -3525,7 +3494,9 @@
       <c r="AX10"/>
       <c r="AY10"/>
       <c r="AZ10"/>
-      <c r="BA10"/>
+      <c r="BA10" t="s">
+        <v>642</v>
+      </c>
       <c r="BB10"/>
       <c r="BC10"/>
       <c r="BD10"/>
@@ -3539,19 +3510,19 @@
       <c r="BL10"/>
       <c r="BM10"/>
       <c r="BN10" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO10" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP10" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ10" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR10" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS10"/>
       <c r="BT10"/>
@@ -3561,13 +3532,13 @@
       <c r="BX10"/>
       <c r="BY10"/>
       <c r="BZ10" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA10" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB10" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC10"/>
       <c r="CD10"/>
@@ -3751,11 +3722,9 @@
         <v>635</v>
       </c>
       <c r="X12"/>
-      <c r="Y12" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y12"/>
       <c r="Z12" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA12"/>
       <c r="AB12"/>
@@ -3768,10 +3737,10 @@
       </c>
       <c r="AH12"/>
       <c r="AI12" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ12" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK12"/>
       <c r="AL12"/>
@@ -3803,19 +3772,19 @@
       <c r="BL12"/>
       <c r="BM12"/>
       <c r="BN12" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO12" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP12" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ12" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR12" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS12"/>
       <c r="BT12"/>
@@ -3825,13 +3794,13 @@
       <c r="BX12"/>
       <c r="BY12"/>
       <c r="BZ12" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA12" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB12" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC12"/>
       <c r="CD12"/>
@@ -4019,11 +3988,9 @@
         <v>634</v>
       </c>
       <c r="X14"/>
-      <c r="Y14" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y14"/>
       <c r="Z14" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA14"/>
       <c r="AB14"/>
@@ -4036,10 +4003,10 @@
       </c>
       <c r="AH14"/>
       <c r="AI14" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ14" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK14"/>
       <c r="AL14"/>
@@ -4053,7 +4020,7 @@
       <c r="AT14"/>
       <c r="AU14"/>
       <c r="AV14" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW14" t="s">
         <v>506</v>
@@ -4061,7 +4028,9 @@
       <c r="AX14"/>
       <c r="AY14"/>
       <c r="AZ14"/>
-      <c r="BA14"/>
+      <c r="BA14" t="s">
+        <v>643</v>
+      </c>
       <c r="BB14"/>
       <c r="BC14"/>
       <c r="BD14"/>
@@ -4075,19 +4044,19 @@
       <c r="BL14"/>
       <c r="BM14"/>
       <c r="BN14" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO14" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP14" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ14" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR14" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS14"/>
       <c r="BT14"/>
@@ -4097,13 +4066,13 @@
       <c r="BX14"/>
       <c r="BY14"/>
       <c r="BZ14" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA14" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB14" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC14"/>
       <c r="CD14"/>
@@ -4287,11 +4256,9 @@
         <v>634</v>
       </c>
       <c r="X16"/>
-      <c r="Y16" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y16"/>
       <c r="Z16" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA16"/>
       <c r="AB16"/>
@@ -4304,10 +4271,10 @@
       </c>
       <c r="AH16"/>
       <c r="AI16" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ16" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK16"/>
       <c r="AL16"/>
@@ -4339,19 +4306,19 @@
       <c r="BL16"/>
       <c r="BM16"/>
       <c r="BN16" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO16" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP16" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ16" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR16" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS16"/>
       <c r="BT16"/>
@@ -4361,13 +4328,13 @@
       <c r="BX16"/>
       <c r="BY16"/>
       <c r="BZ16" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA16" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB16" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC16"/>
       <c r="CD16"/>
@@ -4444,11 +4411,9 @@
         <v>635</v>
       </c>
       <c r="X17"/>
-      <c r="Y17" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y17"/>
       <c r="Z17" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA17"/>
       <c r="AB17"/>
@@ -4461,10 +4426,10 @@
       </c>
       <c r="AH17"/>
       <c r="AI17" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ17" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK17"/>
       <c r="AL17"/>
@@ -4496,19 +4461,19 @@
       <c r="BL17"/>
       <c r="BM17"/>
       <c r="BN17" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO17" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP17" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ17" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR17" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS17"/>
       <c r="BT17"/>
@@ -4518,13 +4483,13 @@
       <c r="BX17"/>
       <c r="BY17"/>
       <c r="BZ17" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA17" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB17" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC17"/>
       <c r="CD17"/>
@@ -4601,11 +4566,9 @@
         <v>634</v>
       </c>
       <c r="X18"/>
-      <c r="Y18" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y18"/>
       <c r="Z18" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA18"/>
       <c r="AB18"/>
@@ -4618,10 +4581,10 @@
       </c>
       <c r="AH18"/>
       <c r="AI18" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ18" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK18"/>
       <c r="AL18"/>
@@ -4742,11 +4705,9 @@
         <v>634</v>
       </c>
       <c r="X19"/>
-      <c r="Y19" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y19"/>
       <c r="Z19" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA19"/>
       <c r="AB19"/>
@@ -4759,10 +4720,10 @@
       </c>
       <c r="AH19"/>
       <c r="AI19" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ19" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK19"/>
       <c r="AL19"/>
@@ -4883,11 +4844,9 @@
         <v>634</v>
       </c>
       <c r="X20"/>
-      <c r="Y20" t="s">
-        <v>638</v>
-      </c>
+      <c r="Y20"/>
       <c r="Z20" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA20"/>
       <c r="AB20"/>
@@ -4900,10 +4859,10 @@
       </c>
       <c r="AH20"/>
       <c r="AI20" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ20" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK20"/>
       <c r="AL20"/>
@@ -4935,19 +4894,19 @@
       <c r="BL20"/>
       <c r="BM20"/>
       <c r="BN20" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO20" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP20" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ20" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR20" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS20"/>
       <c r="BT20"/>
@@ -4957,13 +4916,13 @@
       <c r="BX20"/>
       <c r="BY20"/>
       <c r="BZ20" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA20" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB20" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC20"/>
       <c r="CD20"/>
@@ -5040,11 +4999,9 @@
         <v>634</v>
       </c>
       <c r="X21"/>
-      <c r="Y21" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y21"/>
       <c r="Z21" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA21"/>
       <c r="AB21"/>
@@ -5057,10 +5014,10 @@
       </c>
       <c r="AH21"/>
       <c r="AI21" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ21" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK21"/>
       <c r="AL21"/>
@@ -5092,19 +5049,19 @@
       <c r="BL21"/>
       <c r="BM21"/>
       <c r="BN21" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO21" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP21" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ21" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR21" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS21"/>
       <c r="BT21"/>
@@ -5114,13 +5071,13 @@
       <c r="BX21"/>
       <c r="BY21"/>
       <c r="BZ21" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA21" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB21" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC21"/>
       <c r="CD21"/>
@@ -5197,11 +5154,9 @@
         <v>634</v>
       </c>
       <c r="X22"/>
-      <c r="Y22" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y22"/>
       <c r="Z22" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA22"/>
       <c r="AB22"/>
@@ -5214,10 +5169,10 @@
       </c>
       <c r="AH22"/>
       <c r="AI22" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ22" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK22"/>
       <c r="AL22"/>
@@ -5249,19 +5204,19 @@
       <c r="BL22"/>
       <c r="BM22"/>
       <c r="BN22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR22" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS22"/>
       <c r="BT22"/>
@@ -5271,13 +5226,13 @@
       <c r="BX22"/>
       <c r="BY22"/>
       <c r="BZ22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB22" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC22"/>
       <c r="CD22"/>
@@ -5354,11 +5309,9 @@
         <v>634</v>
       </c>
       <c r="X23"/>
-      <c r="Y23" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y23"/>
       <c r="Z23" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA23"/>
       <c r="AB23"/>
@@ -5371,10 +5324,10 @@
       </c>
       <c r="AH23"/>
       <c r="AI23" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ23" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK23"/>
       <c r="AL23"/>
@@ -5495,11 +5448,9 @@
         <v>634</v>
       </c>
       <c r="X24"/>
-      <c r="Y24" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y24"/>
       <c r="Z24" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA24"/>
       <c r="AB24"/>
@@ -5512,10 +5463,10 @@
       </c>
       <c r="AH24"/>
       <c r="AI24" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ24" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK24"/>
       <c r="AL24"/>
@@ -5547,19 +5498,19 @@
       <c r="BL24"/>
       <c r="BM24"/>
       <c r="BN24" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO24" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP24" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ24" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR24" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS24"/>
       <c r="BT24"/>
@@ -5569,13 +5520,13 @@
       <c r="BX24"/>
       <c r="BY24"/>
       <c r="BZ24" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA24" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB24" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC24"/>
       <c r="CD24"/>
@@ -5759,11 +5710,9 @@
         <v>635</v>
       </c>
       <c r="X26"/>
-      <c r="Y26" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y26"/>
       <c r="Z26" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA26"/>
       <c r="AB26"/>
@@ -5807,19 +5756,19 @@
       <c r="BL26"/>
       <c r="BM26"/>
       <c r="BN26" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO26" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP26" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ26" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR26" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS26"/>
       <c r="BT26"/>
@@ -5829,13 +5778,13 @@
       <c r="BX26"/>
       <c r="BY26"/>
       <c r="BZ26" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA26" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB26" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC26"/>
       <c r="CD26"/>
@@ -5912,11 +5861,9 @@
         <v>635</v>
       </c>
       <c r="X27"/>
-      <c r="Y27" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y27"/>
       <c r="Z27" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA27"/>
       <c r="AB27"/>
@@ -5960,19 +5907,19 @@
       <c r="BL27"/>
       <c r="BM27"/>
       <c r="BN27" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO27" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP27" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ27" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR27" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS27"/>
       <c r="BT27"/>
@@ -5982,13 +5929,13 @@
       <c r="BX27"/>
       <c r="BY27"/>
       <c r="BZ27" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA27" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB27" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC27"/>
       <c r="CD27"/>
@@ -6065,11 +6012,9 @@
         <v>634</v>
       </c>
       <c r="X28"/>
-      <c r="Y28" t="s">
-        <v>640</v>
-      </c>
+      <c r="Y28"/>
       <c r="Z28" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA28"/>
       <c r="AB28"/>
@@ -6082,10 +6027,10 @@
       </c>
       <c r="AH28"/>
       <c r="AI28" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ28" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK28"/>
       <c r="AL28"/>
@@ -6313,11 +6258,9 @@
         <v>634</v>
       </c>
       <c r="X30"/>
-      <c r="Y30" t="s">
-        <v>640</v>
-      </c>
+      <c r="Y30"/>
       <c r="Z30" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA30"/>
       <c r="AB30"/>
@@ -6330,10 +6273,10 @@
       </c>
       <c r="AH30"/>
       <c r="AI30" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ30" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK30"/>
       <c r="AL30"/>
@@ -6365,19 +6308,19 @@
       <c r="BL30"/>
       <c r="BM30"/>
       <c r="BN30" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO30" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP30" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ30" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR30" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS30"/>
       <c r="BT30"/>
@@ -6387,13 +6330,13 @@
       <c r="BX30"/>
       <c r="BY30"/>
       <c r="BZ30" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA30" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB30" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC30"/>
       <c r="CD30"/>
@@ -6470,11 +6413,9 @@
         <v>506</v>
       </c>
       <c r="X31"/>
-      <c r="Y31" t="s">
-        <v>640</v>
-      </c>
+      <c r="Y31"/>
       <c r="Z31" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA31"/>
       <c r="AB31"/>
@@ -6487,10 +6428,10 @@
       </c>
       <c r="AH31"/>
       <c r="AI31" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ31" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK31"/>
       <c r="AL31"/>
@@ -6611,11 +6552,9 @@
         <v>635</v>
       </c>
       <c r="X32"/>
-      <c r="Y32" t="s">
-        <v>640</v>
-      </c>
+      <c r="Y32"/>
       <c r="Z32" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA32"/>
       <c r="AB32"/>
@@ -6628,10 +6567,10 @@
       </c>
       <c r="AH32"/>
       <c r="AI32" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ32" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK32"/>
       <c r="AL32"/>
@@ -6663,19 +6602,19 @@
       <c r="BL32"/>
       <c r="BM32"/>
       <c r="BN32" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO32" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP32" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ32" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR32" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS32"/>
       <c r="BT32"/>
@@ -6685,13 +6624,13 @@
       <c r="BX32"/>
       <c r="BY32"/>
       <c r="BZ32" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA32" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB32" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC32"/>
       <c r="CD32"/>
@@ -6875,11 +6814,9 @@
         <v>635</v>
       </c>
       <c r="X34"/>
-      <c r="Y34" t="s">
-        <v>638</v>
-      </c>
+      <c r="Y34"/>
       <c r="Z34" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA34"/>
       <c r="AB34"/>
@@ -6892,10 +6829,10 @@
       </c>
       <c r="AH34"/>
       <c r="AI34" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ34" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK34"/>
       <c r="AL34"/>
@@ -6927,19 +6864,19 @@
       <c r="BL34"/>
       <c r="BM34"/>
       <c r="BN34" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO34" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP34" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ34" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR34" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS34"/>
       <c r="BT34"/>
@@ -6949,13 +6886,13 @@
       <c r="BX34"/>
       <c r="BY34"/>
       <c r="BZ34" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA34" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB34" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC34"/>
       <c r="CD34"/>
@@ -7036,11 +6973,9 @@
         <v>635</v>
       </c>
       <c r="X35"/>
-      <c r="Y35" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y35"/>
       <c r="Z35" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA35"/>
       <c r="AB35"/>
@@ -7066,7 +7001,7 @@
       <c r="AT35"/>
       <c r="AU35"/>
       <c r="AV35" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW35" t="s">
         <v>506</v>
@@ -7074,7 +7009,9 @@
       <c r="AX35"/>
       <c r="AY35"/>
       <c r="AZ35"/>
-      <c r="BA35"/>
+      <c r="BA35" t="s">
+        <v>642</v>
+      </c>
       <c r="BB35"/>
       <c r="BC35"/>
       <c r="BD35"/>
@@ -7088,19 +7025,19 @@
       <c r="BL35"/>
       <c r="BM35"/>
       <c r="BN35" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO35" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP35" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ35" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR35" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS35"/>
       <c r="BT35"/>
@@ -7110,13 +7047,13 @@
       <c r="BX35"/>
       <c r="BY35"/>
       <c r="BZ35" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA35" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB35" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC35"/>
       <c r="CD35"/>
@@ -7300,11 +7237,9 @@
         <v>634</v>
       </c>
       <c r="X37"/>
-      <c r="Y37" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y37"/>
       <c r="Z37" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA37"/>
       <c r="AB37"/>
@@ -7544,11 +7479,9 @@
         <v>635</v>
       </c>
       <c r="X39"/>
-      <c r="Y39" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y39"/>
       <c r="Z39" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA39"/>
       <c r="AB39"/>
@@ -7561,10 +7494,10 @@
       </c>
       <c r="AH39"/>
       <c r="AI39" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ39" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK39"/>
       <c r="AL39"/>
@@ -7596,19 +7529,19 @@
       <c r="BL39"/>
       <c r="BM39"/>
       <c r="BN39" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO39" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP39" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ39" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR39" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS39"/>
       <c r="BT39"/>
@@ -7618,13 +7551,13 @@
       <c r="BX39"/>
       <c r="BY39"/>
       <c r="BZ39" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA39" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB39" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC39"/>
       <c r="CD39"/>
@@ -7701,11 +7634,9 @@
         <v>635</v>
       </c>
       <c r="X40"/>
-      <c r="Y40" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y40"/>
       <c r="Z40" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA40"/>
       <c r="AB40"/>
@@ -7718,10 +7649,10 @@
       </c>
       <c r="AH40"/>
       <c r="AI40" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ40" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK40"/>
       <c r="AL40"/>
@@ -7753,19 +7684,19 @@
       <c r="BL40"/>
       <c r="BM40"/>
       <c r="BN40" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO40" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP40" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ40" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR40" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS40"/>
       <c r="BT40"/>
@@ -7775,13 +7706,13 @@
       <c r="BX40"/>
       <c r="BY40"/>
       <c r="BZ40" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA40" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB40" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC40"/>
       <c r="CD40"/>
@@ -7858,11 +7789,9 @@
         <v>634</v>
       </c>
       <c r="X41"/>
-      <c r="Y41" t="s">
-        <v>641</v>
-      </c>
+      <c r="Y41"/>
       <c r="Z41" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA41"/>
       <c r="AB41"/>
@@ -7875,10 +7804,10 @@
       </c>
       <c r="AH41"/>
       <c r="AI41" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ41" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK41"/>
       <c r="AL41"/>
@@ -7910,19 +7839,19 @@
       <c r="BL41"/>
       <c r="BM41"/>
       <c r="BN41" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO41" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP41" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ41" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR41" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS41"/>
       <c r="BT41"/>
@@ -7932,13 +7861,13 @@
       <c r="BX41"/>
       <c r="BY41"/>
       <c r="BZ41" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA41" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB41" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC41"/>
       <c r="CD41"/>
@@ -8015,11 +7944,9 @@
         <v>634</v>
       </c>
       <c r="X42"/>
-      <c r="Y42" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y42"/>
       <c r="Z42" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA42"/>
       <c r="AB42"/>
@@ -8032,10 +7959,10 @@
       </c>
       <c r="AH42"/>
       <c r="AI42" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ42" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK42"/>
       <c r="AL42"/>
@@ -8156,11 +8083,9 @@
         <v>634</v>
       </c>
       <c r="X43"/>
-      <c r="Y43" t="s">
-        <v>638</v>
-      </c>
+      <c r="Y43"/>
       <c r="Z43" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA43"/>
       <c r="AB43"/>
@@ -8173,10 +8098,10 @@
       </c>
       <c r="AH43"/>
       <c r="AI43" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ43" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK43"/>
       <c r="AL43"/>
@@ -8297,11 +8222,9 @@
         <v>634</v>
       </c>
       <c r="X44"/>
-      <c r="Y44" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y44"/>
       <c r="Z44" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA44"/>
       <c r="AB44"/>
@@ -8314,10 +8237,10 @@
       </c>
       <c r="AH44"/>
       <c r="AI44" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ44" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK44"/>
       <c r="AL44"/>
@@ -8349,19 +8272,19 @@
       <c r="BL44"/>
       <c r="BM44"/>
       <c r="BN44" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO44" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP44" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ44" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR44" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS44"/>
       <c r="BT44"/>
@@ -8371,13 +8294,13 @@
       <c r="BX44"/>
       <c r="BY44"/>
       <c r="BZ44" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA44" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB44" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC44"/>
       <c r="CD44"/>
@@ -8458,11 +8381,9 @@
         <v>506</v>
       </c>
       <c r="X45"/>
-      <c r="Y45" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y45"/>
       <c r="Z45" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA45"/>
       <c r="AB45"/>
@@ -8488,7 +8409,7 @@
       <c r="AT45"/>
       <c r="AU45"/>
       <c r="AV45" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW45" t="s">
         <v>506</v>
@@ -8496,7 +8417,9 @@
       <c r="AX45"/>
       <c r="AY45"/>
       <c r="AZ45"/>
-      <c r="BA45"/>
+      <c r="BA45" t="s">
+        <v>642</v>
+      </c>
       <c r="BB45"/>
       <c r="BC45"/>
       <c r="BD45"/>
@@ -8599,11 +8522,9 @@
         <v>636</v>
       </c>
       <c r="X46"/>
-      <c r="Y46" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y46"/>
       <c r="Z46" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA46"/>
       <c r="AB46"/>
@@ -8616,10 +8537,10 @@
       </c>
       <c r="AH46"/>
       <c r="AI46" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ46" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK46"/>
       <c r="AL46"/>
@@ -8740,11 +8661,9 @@
         <v>634</v>
       </c>
       <c r="X47"/>
-      <c r="Y47" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y47"/>
       <c r="Z47" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA47"/>
       <c r="AB47"/>
@@ -8757,10 +8676,10 @@
       </c>
       <c r="AH47"/>
       <c r="AI47" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ47" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK47"/>
       <c r="AL47"/>
@@ -8792,19 +8711,19 @@
       <c r="BL47"/>
       <c r="BM47"/>
       <c r="BN47" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO47" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP47" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ47" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR47" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS47"/>
       <c r="BT47"/>
@@ -8814,13 +8733,13 @@
       <c r="BX47"/>
       <c r="BY47"/>
       <c r="BZ47" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA47" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB47" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC47"/>
       <c r="CD47"/>
@@ -8897,11 +8816,9 @@
         <v>634</v>
       </c>
       <c r="X48"/>
-      <c r="Y48" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y48"/>
       <c r="Z48" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA48"/>
       <c r="AB48"/>
@@ -8914,10 +8831,10 @@
       </c>
       <c r="AH48"/>
       <c r="AI48" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ48" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK48"/>
       <c r="AL48"/>
@@ -8949,19 +8866,19 @@
       <c r="BL48"/>
       <c r="BM48"/>
       <c r="BN48" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO48" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP48" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ48" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR48" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS48"/>
       <c r="BT48"/>
@@ -8971,13 +8888,13 @@
       <c r="BX48"/>
       <c r="BY48"/>
       <c r="BZ48" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA48" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB48" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC48"/>
       <c r="CD48"/>
@@ -9058,11 +8975,9 @@
         <v>635</v>
       </c>
       <c r="X49"/>
-      <c r="Y49" t="s">
+      <c r="Y49"/>
+      <c r="Z49" t="s">
         <v>637</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>650</v>
       </c>
       <c r="AA49"/>
       <c r="AB49"/>
@@ -9075,10 +8990,10 @@
       </c>
       <c r="AH49"/>
       <c r="AI49" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ49" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK49"/>
       <c r="AL49"/>
@@ -9092,7 +9007,7 @@
       <c r="AT49"/>
       <c r="AU49"/>
       <c r="AV49" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW49" t="s">
         <v>506</v>
@@ -9100,7 +9015,9 @@
       <c r="AX49"/>
       <c r="AY49"/>
       <c r="AZ49"/>
-      <c r="BA49"/>
+      <c r="BA49" t="s">
+        <v>643</v>
+      </c>
       <c r="BB49"/>
       <c r="BC49"/>
       <c r="BD49"/>
@@ -9114,19 +9031,19 @@
       <c r="BL49"/>
       <c r="BM49"/>
       <c r="BN49" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO49" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP49" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ49" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR49" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS49"/>
       <c r="BT49"/>
@@ -9136,13 +9053,13 @@
       <c r="BX49"/>
       <c r="BY49"/>
       <c r="BZ49" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA49" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB49" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC49"/>
       <c r="CD49"/>
@@ -9219,11 +9136,9 @@
         <v>634</v>
       </c>
       <c r="X50"/>
-      <c r="Y50" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y50"/>
       <c r="Z50" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA50"/>
       <c r="AB50"/>
@@ -9236,10 +9151,10 @@
       </c>
       <c r="AH50"/>
       <c r="AI50" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ50" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK50"/>
       <c r="AL50"/>
@@ -9271,19 +9186,19 @@
       <c r="BL50"/>
       <c r="BM50"/>
       <c r="BN50" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO50" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP50" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ50" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR50" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS50"/>
       <c r="BT50"/>
@@ -9293,13 +9208,13 @@
       <c r="BX50"/>
       <c r="BY50"/>
       <c r="BZ50" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA50" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB50" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC50"/>
       <c r="CD50"/>
@@ -9376,11 +9291,9 @@
         <v>634</v>
       </c>
       <c r="X51"/>
-      <c r="Y51" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y51"/>
       <c r="Z51" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA51"/>
       <c r="AB51"/>
@@ -9393,10 +9306,10 @@
       </c>
       <c r="AH51"/>
       <c r="AI51" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ51" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK51"/>
       <c r="AL51"/>
@@ -9428,19 +9341,19 @@
       <c r="BL51"/>
       <c r="BM51"/>
       <c r="BN51" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO51" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP51" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ51" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR51" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS51"/>
       <c r="BT51"/>
@@ -9450,13 +9363,13 @@
       <c r="BX51"/>
       <c r="BY51"/>
       <c r="BZ51" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA51" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB51" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC51"/>
       <c r="CD51"/>
@@ -9533,11 +9446,9 @@
         <v>634</v>
       </c>
       <c r="X52"/>
-      <c r="Y52" t="s">
-        <v>638</v>
-      </c>
+      <c r="Y52"/>
       <c r="Z52" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA52"/>
       <c r="AB52"/>
@@ -9781,11 +9692,9 @@
         <v>635</v>
       </c>
       <c r="X54"/>
-      <c r="Y54" t="s">
-        <v>638</v>
-      </c>
+      <c r="Y54"/>
       <c r="Z54" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA54"/>
       <c r="AB54"/>
@@ -9811,7 +9720,7 @@
       <c r="AT54"/>
       <c r="AU54"/>
       <c r="AV54" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW54" t="s">
         <v>506</v>
@@ -9820,7 +9729,7 @@
       <c r="AY54"/>
       <c r="AZ54"/>
       <c r="BA54" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB54"/>
       <c r="BC54"/>
@@ -9835,19 +9744,19 @@
       <c r="BL54"/>
       <c r="BM54"/>
       <c r="BN54" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO54" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP54" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ54" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR54" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS54"/>
       <c r="BT54"/>
@@ -9857,13 +9766,13 @@
       <c r="BX54"/>
       <c r="BY54"/>
       <c r="BZ54" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA54" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB54" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC54"/>
       <c r="CD54"/>
@@ -9944,11 +9853,9 @@
         <v>635</v>
       </c>
       <c r="X55"/>
-      <c r="Y55" t="s">
-        <v>638</v>
-      </c>
+      <c r="Y55"/>
       <c r="Z55" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA55"/>
       <c r="AB55"/>
@@ -9974,7 +9881,7 @@
       <c r="AT55"/>
       <c r="AU55"/>
       <c r="AV55" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW55" t="s">
         <v>506</v>
@@ -9983,7 +9890,7 @@
       <c r="AY55"/>
       <c r="AZ55"/>
       <c r="BA55" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB55"/>
       <c r="BC55"/>
@@ -9998,19 +9905,19 @@
       <c r="BL55"/>
       <c r="BM55"/>
       <c r="BN55" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO55" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP55" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ55" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR55" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS55"/>
       <c r="BT55"/>
@@ -10020,13 +9927,13 @@
       <c r="BX55"/>
       <c r="BY55"/>
       <c r="BZ55" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA55" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB55" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC55"/>
       <c r="CD55"/>
@@ -10103,11 +10010,9 @@
         <v>634</v>
       </c>
       <c r="X56"/>
-      <c r="Y56" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y56"/>
       <c r="Z56" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA56"/>
       <c r="AB56"/>
@@ -10120,10 +10025,10 @@
       </c>
       <c r="AH56"/>
       <c r="AI56" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ56" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK56"/>
       <c r="AL56"/>
@@ -10155,19 +10060,19 @@
       <c r="BL56"/>
       <c r="BM56"/>
       <c r="BN56" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO56" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP56" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ56" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR56" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS56"/>
       <c r="BT56"/>
@@ -10177,13 +10082,13 @@
       <c r="BX56"/>
       <c r="BY56"/>
       <c r="BZ56" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA56" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB56" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC56"/>
       <c r="CD56"/>
@@ -10260,11 +10165,9 @@
         <v>635</v>
       </c>
       <c r="X57"/>
-      <c r="Y57" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y57"/>
       <c r="Z57" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA57"/>
       <c r="AB57"/>
@@ -10277,10 +10180,10 @@
       </c>
       <c r="AH57"/>
       <c r="AI57" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ57" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK57"/>
       <c r="AL57"/>
@@ -10312,19 +10215,19 @@
       <c r="BL57"/>
       <c r="BM57"/>
       <c r="BN57" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO57" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP57" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ57" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR57" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS57"/>
       <c r="BT57"/>
@@ -10334,13 +10237,13 @@
       <c r="BX57"/>
       <c r="BY57"/>
       <c r="BZ57" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA57" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB57" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC57"/>
       <c r="CD57"/>
@@ -10421,11 +10324,9 @@
         <v>634</v>
       </c>
       <c r="X58"/>
-      <c r="Y58" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y58"/>
       <c r="Z58" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA58"/>
       <c r="AB58"/>
@@ -10438,10 +10339,10 @@
       </c>
       <c r="AH58"/>
       <c r="AI58" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ58" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK58"/>
       <c r="AL58"/>
@@ -10455,7 +10356,7 @@
       <c r="AT58"/>
       <c r="AU58"/>
       <c r="AV58" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW58" t="s">
         <v>506</v>
@@ -10463,7 +10364,9 @@
       <c r="AX58"/>
       <c r="AY58"/>
       <c r="AZ58"/>
-      <c r="BA58"/>
+      <c r="BA58" t="s">
+        <v>642</v>
+      </c>
       <c r="BB58"/>
       <c r="BC58"/>
       <c r="BD58"/>
@@ -10477,19 +10380,19 @@
       <c r="BL58"/>
       <c r="BM58"/>
       <c r="BN58" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO58" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP58" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ58" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR58" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS58"/>
       <c r="BT58"/>
@@ -10499,13 +10402,13 @@
       <c r="BX58"/>
       <c r="BY58"/>
       <c r="BZ58" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA58" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB58" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC58"/>
       <c r="CD58"/>
@@ -10693,11 +10596,9 @@
         <v>635</v>
       </c>
       <c r="X60"/>
-      <c r="Y60" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y60"/>
       <c r="Z60" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA60"/>
       <c r="AB60"/>
@@ -10723,7 +10624,7 @@
       <c r="AT60"/>
       <c r="AU60"/>
       <c r="AV60" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW60" t="s">
         <v>506</v>
@@ -10731,7 +10632,9 @@
       <c r="AX60"/>
       <c r="AY60"/>
       <c r="AZ60"/>
-      <c r="BA60"/>
+      <c r="BA60" t="s">
+        <v>642</v>
+      </c>
       <c r="BB60"/>
       <c r="BC60"/>
       <c r="BD60"/>
@@ -10745,19 +10648,19 @@
       <c r="BL60"/>
       <c r="BM60"/>
       <c r="BN60" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO60" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP60" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ60" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR60" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS60"/>
       <c r="BT60"/>
@@ -10767,13 +10670,13 @@
       <c r="BX60"/>
       <c r="BY60"/>
       <c r="BZ60" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA60" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB60" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC60"/>
       <c r="CD60"/>
@@ -10850,11 +10753,9 @@
         <v>634</v>
       </c>
       <c r="X61"/>
-      <c r="Y61" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y61"/>
       <c r="Z61" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA61"/>
       <c r="AB61"/>
@@ -10867,10 +10768,10 @@
       </c>
       <c r="AH61"/>
       <c r="AI61" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ61" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK61"/>
       <c r="AL61"/>
@@ -10902,19 +10803,19 @@
       <c r="BL61"/>
       <c r="BM61"/>
       <c r="BN61" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO61" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP61" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ61" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR61" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS61"/>
       <c r="BT61"/>
@@ -10924,13 +10825,13 @@
       <c r="BX61"/>
       <c r="BY61"/>
       <c r="BZ61" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA61" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB61" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC61"/>
       <c r="CD61"/>
@@ -11114,11 +11015,9 @@
         <v>634</v>
       </c>
       <c r="X63"/>
-      <c r="Y63" t="s">
+      <c r="Y63"/>
+      <c r="Z63" t="s">
         <v>637</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>650</v>
       </c>
       <c r="AA63"/>
       <c r="AB63"/>
@@ -11131,10 +11030,10 @@
       </c>
       <c r="AH63"/>
       <c r="AI63" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ63" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK63"/>
       <c r="AL63"/>
@@ -11166,19 +11065,19 @@
       <c r="BL63"/>
       <c r="BM63"/>
       <c r="BN63" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO63" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP63" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ63" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR63" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS63"/>
       <c r="BT63"/>
@@ -11188,13 +11087,13 @@
       <c r="BX63"/>
       <c r="BY63"/>
       <c r="BZ63" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA63" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB63" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC63"/>
       <c r="CD63"/>
@@ -11271,11 +11170,9 @@
         <v>634</v>
       </c>
       <c r="X64"/>
-      <c r="Y64" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y64"/>
       <c r="Z64" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA64"/>
       <c r="AB64"/>
@@ -11288,10 +11185,10 @@
       </c>
       <c r="AH64"/>
       <c r="AI64" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ64" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK64"/>
       <c r="AL64"/>
@@ -11323,19 +11220,19 @@
       <c r="BL64"/>
       <c r="BM64"/>
       <c r="BN64" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO64" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP64" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ64" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR64" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS64"/>
       <c r="BT64"/>
@@ -11345,13 +11242,13 @@
       <c r="BX64"/>
       <c r="BY64"/>
       <c r="BZ64" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA64" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB64" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC64"/>
       <c r="CD64"/>
@@ -11535,11 +11432,9 @@
         <v>635</v>
       </c>
       <c r="X66"/>
-      <c r="Y66" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y66"/>
       <c r="Z66" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA66"/>
       <c r="AB66"/>
@@ -11552,10 +11447,10 @@
       </c>
       <c r="AH66"/>
       <c r="AI66" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ66" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK66"/>
       <c r="AL66"/>
@@ -11587,19 +11482,19 @@
       <c r="BL66"/>
       <c r="BM66"/>
       <c r="BN66" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO66" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP66" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ66" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR66" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS66"/>
       <c r="BT66"/>
@@ -11609,13 +11504,13 @@
       <c r="BX66"/>
       <c r="BY66"/>
       <c r="BZ66" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA66" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB66" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC66"/>
       <c r="CD66"/>
@@ -11799,11 +11694,9 @@
         <v>634</v>
       </c>
       <c r="X68"/>
-      <c r="Y68" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y68"/>
       <c r="Z68" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA68"/>
       <c r="AB68"/>
@@ -11816,10 +11709,10 @@
       </c>
       <c r="AH68"/>
       <c r="AI68" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ68" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK68"/>
       <c r="AL68"/>
@@ -11851,19 +11744,19 @@
       <c r="BL68"/>
       <c r="BM68"/>
       <c r="BN68" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO68" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP68" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ68" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR68" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS68"/>
       <c r="BT68"/>
@@ -11873,13 +11766,13 @@
       <c r="BX68"/>
       <c r="BY68"/>
       <c r="BZ68" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA68" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB68" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC68"/>
       <c r="CD68"/>
@@ -12063,11 +11956,9 @@
         <v>634</v>
       </c>
       <c r="X70"/>
-      <c r="Y70" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y70"/>
       <c r="Z70" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA70"/>
       <c r="AB70"/>
@@ -12080,10 +11971,10 @@
       </c>
       <c r="AH70"/>
       <c r="AI70" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ70" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK70"/>
       <c r="AL70"/>
@@ -12115,19 +12006,19 @@
       <c r="BL70"/>
       <c r="BM70"/>
       <c r="BN70" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO70" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP70" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ70" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR70" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS70"/>
       <c r="BT70"/>
@@ -12137,13 +12028,13 @@
       <c r="BX70"/>
       <c r="BY70"/>
       <c r="BZ70" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA70" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB70" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC70"/>
       <c r="CD70"/>
@@ -12220,11 +12111,9 @@
         <v>635</v>
       </c>
       <c r="X71"/>
-      <c r="Y71" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y71"/>
       <c r="Z71" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA71"/>
       <c r="AB71"/>
@@ -12237,10 +12126,10 @@
       </c>
       <c r="AH71"/>
       <c r="AI71" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ71" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK71"/>
       <c r="AL71"/>
@@ -12272,19 +12161,19 @@
       <c r="BL71"/>
       <c r="BM71"/>
       <c r="BN71" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO71" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP71" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ71" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR71" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS71"/>
       <c r="BT71"/>
@@ -12294,13 +12183,13 @@
       <c r="BX71"/>
       <c r="BY71"/>
       <c r="BZ71" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA71" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB71" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC71"/>
       <c r="CD71"/>
@@ -12377,11 +12266,9 @@
         <v>634</v>
       </c>
       <c r="X72"/>
-      <c r="Y72" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y72"/>
       <c r="Z72" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA72"/>
       <c r="AB72"/>
@@ -12394,10 +12281,10 @@
       </c>
       <c r="AH72"/>
       <c r="AI72" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ72" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK72"/>
       <c r="AL72"/>
@@ -12429,19 +12316,19 @@
       <c r="BL72"/>
       <c r="BM72"/>
       <c r="BN72" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO72" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP72" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ72" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR72" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS72"/>
       <c r="BT72"/>
@@ -12451,13 +12338,13 @@
       <c r="BX72"/>
       <c r="BY72"/>
       <c r="BZ72" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA72" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB72" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC72"/>
       <c r="CD72"/>
@@ -12534,11 +12421,9 @@
         <v>634</v>
       </c>
       <c r="X73"/>
-      <c r="Y73" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y73"/>
       <c r="Z73" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA73"/>
       <c r="AB73"/>
@@ -12551,10 +12436,10 @@
       </c>
       <c r="AH73"/>
       <c r="AI73" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ73" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK73"/>
       <c r="AL73"/>
@@ -12586,19 +12471,19 @@
       <c r="BL73"/>
       <c r="BM73"/>
       <c r="BN73" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO73" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP73" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ73" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR73" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS73"/>
       <c r="BT73"/>
@@ -12608,13 +12493,13 @@
       <c r="BX73"/>
       <c r="BY73"/>
       <c r="BZ73" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA73" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB73" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC73"/>
       <c r="CD73"/>
@@ -12691,11 +12576,9 @@
         <v>635</v>
       </c>
       <c r="X74"/>
-      <c r="Y74" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y74"/>
       <c r="Z74" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA74"/>
       <c r="AB74"/>
@@ -12708,10 +12591,10 @@
       </c>
       <c r="AH74"/>
       <c r="AI74" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ74" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK74"/>
       <c r="AL74"/>
@@ -12743,19 +12626,19 @@
       <c r="BL74"/>
       <c r="BM74"/>
       <c r="BN74" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO74" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP74" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ74" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR74" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS74"/>
       <c r="BT74"/>
@@ -12765,13 +12648,13 @@
       <c r="BX74"/>
       <c r="BY74"/>
       <c r="BZ74" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA74" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB74" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC74"/>
       <c r="CD74"/>
@@ -12848,11 +12731,9 @@
         <v>634</v>
       </c>
       <c r="X75"/>
-      <c r="Y75" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y75"/>
       <c r="Z75" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA75"/>
       <c r="AB75"/>
@@ -12865,10 +12746,10 @@
       </c>
       <c r="AH75"/>
       <c r="AI75" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ75" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK75"/>
       <c r="AL75"/>
@@ -12900,19 +12781,19 @@
       <c r="BL75"/>
       <c r="BM75"/>
       <c r="BN75" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO75" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP75" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ75" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR75" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS75"/>
       <c r="BT75"/>
@@ -12922,13 +12803,13 @@
       <c r="BX75"/>
       <c r="BY75"/>
       <c r="BZ75" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA75" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB75" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC75"/>
       <c r="CD75"/>
@@ -13005,11 +12886,9 @@
         <v>634</v>
       </c>
       <c r="X76"/>
-      <c r="Y76" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y76"/>
       <c r="Z76" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA76"/>
       <c r="AB76"/>
@@ -13022,10 +12901,10 @@
       </c>
       <c r="AH76"/>
       <c r="AI76" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ76" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK76"/>
       <c r="AL76"/>
@@ -13057,19 +12936,19 @@
       <c r="BL76"/>
       <c r="BM76"/>
       <c r="BN76" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO76" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP76" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ76" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR76" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS76"/>
       <c r="BT76"/>
@@ -13079,13 +12958,13 @@
       <c r="BX76"/>
       <c r="BY76"/>
       <c r="BZ76" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA76" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB76" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC76"/>
       <c r="CD76"/>
@@ -13162,11 +13041,9 @@
         <v>634</v>
       </c>
       <c r="X77"/>
-      <c r="Y77" t="s">
-        <v>643</v>
-      </c>
+      <c r="Y77"/>
       <c r="Z77" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA77"/>
       <c r="AB77"/>
@@ -13179,10 +13056,10 @@
       </c>
       <c r="AH77"/>
       <c r="AI77" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ77" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK77"/>
       <c r="AL77"/>
@@ -13214,19 +13091,19 @@
       <c r="BL77"/>
       <c r="BM77"/>
       <c r="BN77" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO77" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP77" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ77" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR77" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS77"/>
       <c r="BT77"/>
@@ -13236,13 +13113,13 @@
       <c r="BX77"/>
       <c r="BY77"/>
       <c r="BZ77" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA77" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB77" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC77"/>
       <c r="CD77"/>
@@ -13426,11 +13303,9 @@
         <v>635</v>
       </c>
       <c r="X79"/>
-      <c r="Y79" t="s">
-        <v>642</v>
-      </c>
+      <c r="Y79"/>
       <c r="Z79" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA79"/>
       <c r="AB79"/>
@@ -13474,19 +13349,19 @@
       <c r="BL79"/>
       <c r="BM79"/>
       <c r="BN79" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO79" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP79" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ79" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR79" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS79"/>
       <c r="BT79"/>
@@ -13496,13 +13371,13 @@
       <c r="BX79"/>
       <c r="BY79"/>
       <c r="BZ79" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA79" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB79" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC79"/>
       <c r="CD79"/>
@@ -13579,11 +13454,9 @@
         <v>634</v>
       </c>
       <c r="X80"/>
-      <c r="Y80" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y80"/>
       <c r="Z80" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA80"/>
       <c r="AB80"/>
@@ -13627,19 +13500,19 @@
       <c r="BL80"/>
       <c r="BM80"/>
       <c r="BN80" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO80" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP80" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ80" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR80" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS80"/>
       <c r="BT80"/>
@@ -13649,13 +13522,13 @@
       <c r="BX80"/>
       <c r="BY80"/>
       <c r="BZ80" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA80" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB80" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC80"/>
       <c r="CD80"/>
@@ -13839,11 +13712,9 @@
         <v>634</v>
       </c>
       <c r="X82"/>
-      <c r="Y82" t="s">
-        <v>644</v>
-      </c>
+      <c r="Y82"/>
       <c r="Z82" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA82"/>
       <c r="AB82"/>
@@ -13856,10 +13727,10 @@
       </c>
       <c r="AH82"/>
       <c r="AI82" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ82" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK82"/>
       <c r="AL82"/>
@@ -13891,19 +13762,19 @@
       <c r="BL82"/>
       <c r="BM82"/>
       <c r="BN82" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO82" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP82" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ82" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR82" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS82"/>
       <c r="BT82"/>
@@ -13913,13 +13784,13 @@
       <c r="BX82"/>
       <c r="BY82"/>
       <c r="BZ82" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA82" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB82" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC82"/>
       <c r="CD82"/>
@@ -13996,11 +13867,9 @@
         <v>634</v>
       </c>
       <c r="X83"/>
-      <c r="Y83" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y83"/>
       <c r="Z83" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA83"/>
       <c r="AB83"/>
@@ -14013,10 +13882,10 @@
       </c>
       <c r="AH83"/>
       <c r="AI83" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ83" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK83"/>
       <c r="AL83"/>
@@ -14048,19 +13917,19 @@
       <c r="BL83"/>
       <c r="BM83"/>
       <c r="BN83" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO83" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP83" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ83" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR83" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS83"/>
       <c r="BT83"/>
@@ -14070,13 +13939,13 @@
       <c r="BX83"/>
       <c r="BY83"/>
       <c r="BZ83" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA83" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB83" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC83"/>
       <c r="CD83"/>
@@ -14153,11 +14022,9 @@
         <v>634</v>
       </c>
       <c r="X84"/>
-      <c r="Y84" t="s">
-        <v>644</v>
-      </c>
+      <c r="Y84"/>
       <c r="Z84" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA84"/>
       <c r="AB84"/>
@@ -14201,19 +14068,19 @@
       <c r="BL84"/>
       <c r="BM84"/>
       <c r="BN84" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO84" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP84" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ84" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR84" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS84"/>
       <c r="BT84"/>
@@ -14223,13 +14090,13 @@
       <c r="BX84"/>
       <c r="BY84"/>
       <c r="BZ84" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA84" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB84" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC84"/>
       <c r="CD84"/>
@@ -14306,11 +14173,9 @@
         <v>635</v>
       </c>
       <c r="X85"/>
-      <c r="Y85" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y85"/>
       <c r="Z85" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA85"/>
       <c r="AB85"/>
@@ -14323,10 +14188,10 @@
       </c>
       <c r="AH85"/>
       <c r="AI85" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ85" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK85"/>
       <c r="AL85"/>
@@ -14358,19 +14223,19 @@
       <c r="BL85"/>
       <c r="BM85"/>
       <c r="BN85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR85" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS85"/>
       <c r="BT85"/>
@@ -14380,13 +14245,13 @@
       <c r="BX85"/>
       <c r="BY85"/>
       <c r="BZ85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA85" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB85" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC85"/>
       <c r="CD85"/>
@@ -14463,11 +14328,9 @@
         <v>634</v>
       </c>
       <c r="X86"/>
-      <c r="Y86" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y86"/>
       <c r="Z86" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA86"/>
       <c r="AB86"/>
@@ -14480,10 +14343,10 @@
       </c>
       <c r="AH86"/>
       <c r="AI86" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ86" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK86"/>
       <c r="AL86"/>
@@ -14604,11 +14467,9 @@
         <v>635</v>
       </c>
       <c r="X87"/>
-      <c r="Y87" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y87"/>
       <c r="Z87" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA87"/>
       <c r="AB87"/>
@@ -14621,10 +14482,10 @@
       </c>
       <c r="AH87"/>
       <c r="AI87" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ87" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK87"/>
       <c r="AL87"/>
@@ -14656,19 +14517,19 @@
       <c r="BL87"/>
       <c r="BM87"/>
       <c r="BN87" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO87" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP87" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ87" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR87" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS87"/>
       <c r="BT87"/>
@@ -14678,13 +14539,13 @@
       <c r="BX87"/>
       <c r="BY87"/>
       <c r="BZ87" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA87" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB87" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC87"/>
       <c r="CD87"/>
@@ -14761,11 +14622,9 @@
         <v>635</v>
       </c>
       <c r="X88"/>
-      <c r="Y88" t="s">
+      <c r="Y88"/>
+      <c r="Z88" t="s">
         <v>637</v>
-      </c>
-      <c r="Z88" t="s">
-        <v>650</v>
       </c>
       <c r="AA88"/>
       <c r="AB88"/>
@@ -14809,19 +14668,19 @@
       <c r="BL88"/>
       <c r="BM88"/>
       <c r="BN88" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO88" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP88" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ88" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR88" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS88"/>
       <c r="BT88"/>
@@ -14831,13 +14690,13 @@
       <c r="BX88"/>
       <c r="BY88"/>
       <c r="BZ88" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA88" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB88" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC88"/>
       <c r="CD88"/>
@@ -15025,11 +14884,9 @@
         <v>635</v>
       </c>
       <c r="X90"/>
-      <c r="Y90" t="s">
+      <c r="Y90"/>
+      <c r="Z90" t="s">
         <v>637</v>
-      </c>
-      <c r="Z90" t="s">
-        <v>650</v>
       </c>
       <c r="AA90"/>
       <c r="AB90"/>
@@ -15042,10 +14899,10 @@
       </c>
       <c r="AH90"/>
       <c r="AI90" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ90" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK90"/>
       <c r="AL90"/>
@@ -15059,7 +14916,7 @@
       <c r="AT90"/>
       <c r="AU90"/>
       <c r="AV90" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW90" t="s">
         <v>506</v>
@@ -15067,7 +14924,9 @@
       <c r="AX90"/>
       <c r="AY90"/>
       <c r="AZ90"/>
-      <c r="BA90"/>
+      <c r="BA90" t="s">
+        <v>645</v>
+      </c>
       <c r="BB90"/>
       <c r="BC90"/>
       <c r="BD90"/>
@@ -15081,19 +14940,19 @@
       <c r="BL90"/>
       <c r="BM90"/>
       <c r="BN90" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO90" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP90" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ90" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR90" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS90"/>
       <c r="BT90"/>
@@ -15103,13 +14962,13 @@
       <c r="BX90"/>
       <c r="BY90"/>
       <c r="BZ90" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA90" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB90" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC90"/>
       <c r="CD90"/>
@@ -15293,11 +15152,9 @@
         <v>635</v>
       </c>
       <c r="X92"/>
-      <c r="Y92" t="s">
-        <v>643</v>
-      </c>
+      <c r="Y92"/>
       <c r="Z92" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA92"/>
       <c r="AB92"/>
@@ -15341,19 +15198,19 @@
       <c r="BL92"/>
       <c r="BM92"/>
       <c r="BN92" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO92" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP92" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ92" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR92" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS92"/>
       <c r="BT92"/>
@@ -15363,13 +15220,13 @@
       <c r="BX92"/>
       <c r="BY92"/>
       <c r="BZ92" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA92" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB92" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC92"/>
       <c r="CD92"/>
@@ -15450,11 +15307,9 @@
         <v>634</v>
       </c>
       <c r="X93"/>
-      <c r="Y93" t="s">
-        <v>645</v>
-      </c>
+      <c r="Y93"/>
       <c r="Z93" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA93"/>
       <c r="AB93"/>
@@ -15480,7 +15335,7 @@
       <c r="AT93"/>
       <c r="AU93"/>
       <c r="AV93" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW93" t="s">
         <v>506</v>
@@ -15489,7 +15344,7 @@
       <c r="AY93"/>
       <c r="AZ93"/>
       <c r="BA93" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB93"/>
       <c r="BC93"/>
@@ -15504,19 +15359,19 @@
       <c r="BL93"/>
       <c r="BM93"/>
       <c r="BN93" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO93" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP93" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ93" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR93" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS93"/>
       <c r="BT93"/>
@@ -15526,13 +15381,13 @@
       <c r="BX93"/>
       <c r="BY93"/>
       <c r="BZ93" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA93" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB93" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC93"/>
       <c r="CD93"/>
@@ -15716,11 +15571,9 @@
         <v>506</v>
       </c>
       <c r="X95"/>
-      <c r="Y95" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y95"/>
       <c r="Z95" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA95"/>
       <c r="AB95"/>
@@ -15733,10 +15586,10 @@
       </c>
       <c r="AH95"/>
       <c r="AI95" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ95" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK95"/>
       <c r="AL95"/>
@@ -15857,11 +15710,9 @@
         <v>635</v>
       </c>
       <c r="X96"/>
-      <c r="Y96" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y96"/>
       <c r="Z96" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA96"/>
       <c r="AB96"/>
@@ -15874,10 +15725,10 @@
       </c>
       <c r="AH96"/>
       <c r="AI96" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ96" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK96"/>
       <c r="AL96"/>
@@ -15909,19 +15760,19 @@
       <c r="BL96"/>
       <c r="BM96"/>
       <c r="BN96" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO96" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP96" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ96" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR96" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS96"/>
       <c r="BT96"/>
@@ -15931,13 +15782,13 @@
       <c r="BX96"/>
       <c r="BY96"/>
       <c r="BZ96" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA96" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB96" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC96"/>
       <c r="CD96"/>
@@ -16014,11 +15865,9 @@
         <v>635</v>
       </c>
       <c r="X97"/>
-      <c r="Y97" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y97"/>
       <c r="Z97" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA97"/>
       <c r="AB97"/>
@@ -16031,10 +15880,10 @@
       </c>
       <c r="AH97"/>
       <c r="AI97" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ97" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK97"/>
       <c r="AL97"/>
@@ -16066,19 +15915,19 @@
       <c r="BL97"/>
       <c r="BM97"/>
       <c r="BN97" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO97" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP97" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ97" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR97" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS97"/>
       <c r="BT97"/>
@@ -16088,13 +15937,13 @@
       <c r="BX97"/>
       <c r="BY97"/>
       <c r="BZ97" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA97" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB97" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC97"/>
       <c r="CD97"/>
@@ -16171,11 +16020,9 @@
         <v>506</v>
       </c>
       <c r="X98"/>
-      <c r="Y98" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y98"/>
       <c r="Z98" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA98"/>
       <c r="AB98"/>
@@ -16188,10 +16035,10 @@
       </c>
       <c r="AH98"/>
       <c r="AI98" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ98" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK98"/>
       <c r="AL98"/>
@@ -16312,11 +16159,9 @@
         <v>635</v>
       </c>
       <c r="X99"/>
-      <c r="Y99" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y99"/>
       <c r="Z99" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA99"/>
       <c r="AB99"/>
@@ -16329,10 +16174,10 @@
       </c>
       <c r="AH99"/>
       <c r="AI99" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ99" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK99"/>
       <c r="AL99"/>
@@ -16364,19 +16209,19 @@
       <c r="BL99"/>
       <c r="BM99"/>
       <c r="BN99" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO99" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP99" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ99" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR99" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS99"/>
       <c r="BT99"/>
@@ -16386,13 +16231,13 @@
       <c r="BX99"/>
       <c r="BY99"/>
       <c r="BZ99" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA99" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB99" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC99"/>
       <c r="CD99"/>
@@ -16469,11 +16314,9 @@
         <v>634</v>
       </c>
       <c r="X100"/>
-      <c r="Y100" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y100"/>
       <c r="Z100" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA100"/>
       <c r="AB100"/>
@@ -16517,19 +16360,19 @@
       <c r="BL100"/>
       <c r="BM100"/>
       <c r="BN100" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO100" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP100" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ100" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR100" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS100"/>
       <c r="BT100"/>
@@ -16539,13 +16382,13 @@
       <c r="BX100"/>
       <c r="BY100"/>
       <c r="BZ100" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA100" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB100" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC100"/>
       <c r="CD100"/>
@@ -16622,11 +16465,9 @@
         <v>506</v>
       </c>
       <c r="X101"/>
-      <c r="Y101" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y101"/>
       <c r="Z101" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA101"/>
       <c r="AB101"/>
@@ -16763,11 +16604,9 @@
         <v>634</v>
       </c>
       <c r="X102"/>
-      <c r="Y102" t="s">
-        <v>647</v>
-      </c>
+      <c r="Y102"/>
       <c r="Z102" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA102"/>
       <c r="AB102"/>
@@ -16793,7 +16632,7 @@
       <c r="AT102"/>
       <c r="AU102"/>
       <c r="AV102" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW102" t="s">
         <v>506</v>
@@ -16801,7 +16640,9 @@
       <c r="AX102"/>
       <c r="AY102"/>
       <c r="AZ102"/>
-      <c r="BA102"/>
+      <c r="BA102" t="s">
+        <v>642</v>
+      </c>
       <c r="BB102"/>
       <c r="BC102"/>
       <c r="BD102"/>
@@ -16815,19 +16656,19 @@
       <c r="BL102"/>
       <c r="BM102"/>
       <c r="BN102" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO102" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP102" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ102" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR102" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS102"/>
       <c r="BT102"/>
@@ -16837,13 +16678,13 @@
       <c r="BX102"/>
       <c r="BY102"/>
       <c r="BZ102" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA102" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB102" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC102"/>
       <c r="CD102"/>
@@ -16920,11 +16761,9 @@
         <v>634</v>
       </c>
       <c r="X103"/>
-      <c r="Y103" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y103"/>
       <c r="Z103" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA103"/>
       <c r="AB103"/>
@@ -17057,11 +16896,9 @@
         <v>634</v>
       </c>
       <c r="X104"/>
-      <c r="Y104" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y104"/>
       <c r="Z104" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA104"/>
       <c r="AB104"/>
@@ -17105,19 +16942,19 @@
       <c r="BL104"/>
       <c r="BM104"/>
       <c r="BN104" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO104" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP104" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ104" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR104" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS104"/>
       <c r="BT104"/>
@@ -17127,13 +16964,13 @@
       <c r="BX104"/>
       <c r="BY104"/>
       <c r="BZ104" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA104" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB104" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC104"/>
       <c r="CD104"/>
@@ -17317,11 +17154,9 @@
         <v>635</v>
       </c>
       <c r="X106"/>
-      <c r="Y106" t="s">
-        <v>643</v>
-      </c>
+      <c r="Y106"/>
       <c r="Z106" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA106"/>
       <c r="AB106"/>
@@ -17334,10 +17169,10 @@
       </c>
       <c r="AH106"/>
       <c r="AI106" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ106" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK106"/>
       <c r="AL106"/>
@@ -17369,19 +17204,19 @@
       <c r="BL106"/>
       <c r="BM106"/>
       <c r="BN106" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO106" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP106" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ106" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR106" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS106"/>
       <c r="BT106"/>
@@ -17391,13 +17226,13 @@
       <c r="BX106"/>
       <c r="BY106"/>
       <c r="BZ106" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA106" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB106" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC106"/>
       <c r="CD106"/>
@@ -17585,11 +17420,9 @@
         <v>635</v>
       </c>
       <c r="X108"/>
-      <c r="Y108" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y108"/>
       <c r="Z108" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA108"/>
       <c r="AB108"/>
@@ -17615,7 +17448,7 @@
       <c r="AT108"/>
       <c r="AU108"/>
       <c r="AV108" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW108" t="s">
         <v>506</v>
@@ -17623,7 +17456,9 @@
       <c r="AX108"/>
       <c r="AY108"/>
       <c r="AZ108"/>
-      <c r="BA108"/>
+      <c r="BA108" t="s">
+        <v>642</v>
+      </c>
       <c r="BB108"/>
       <c r="BC108"/>
       <c r="BD108"/>
@@ -17637,19 +17472,19 @@
       <c r="BL108"/>
       <c r="BM108"/>
       <c r="BN108" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO108" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP108" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ108" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR108" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS108"/>
       <c r="BT108"/>
@@ -17659,13 +17494,13 @@
       <c r="BX108"/>
       <c r="BY108"/>
       <c r="BZ108" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA108" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB108" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC108"/>
       <c r="CD108"/>
@@ -17849,11 +17684,9 @@
         <v>634</v>
       </c>
       <c r="X110"/>
-      <c r="Y110" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y110"/>
       <c r="Z110" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA110"/>
       <c r="AB110"/>
@@ -17866,10 +17699,10 @@
       </c>
       <c r="AH110"/>
       <c r="AI110" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ110" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK110"/>
       <c r="AL110"/>
@@ -18097,11 +17930,9 @@
         <v>634</v>
       </c>
       <c r="X112"/>
-      <c r="Y112" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y112"/>
       <c r="Z112" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA112"/>
       <c r="AB112"/>
@@ -18114,10 +17945,10 @@
       </c>
       <c r="AH112"/>
       <c r="AI112" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ112" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK112"/>
       <c r="AL112"/>
@@ -18349,11 +18180,9 @@
         <v>635</v>
       </c>
       <c r="X114"/>
-      <c r="Y114" t="s">
-        <v>648</v>
-      </c>
+      <c r="Y114"/>
       <c r="Z114" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA114"/>
       <c r="AB114"/>
@@ -18379,7 +18208,7 @@
       <c r="AT114"/>
       <c r="AU114"/>
       <c r="AV114" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW114" t="s">
         <v>506</v>
@@ -18388,7 +18217,7 @@
       <c r="AY114"/>
       <c r="AZ114"/>
       <c r="BA114" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB114"/>
       <c r="BC114"/>
@@ -18403,19 +18232,19 @@
       <c r="BL114"/>
       <c r="BM114"/>
       <c r="BN114" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO114" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP114" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ114" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR114" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS114"/>
       <c r="BT114"/>
@@ -18425,13 +18254,13 @@
       <c r="BX114"/>
       <c r="BY114"/>
       <c r="BZ114" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA114" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB114" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC114"/>
       <c r="CD114"/>
@@ -18512,11 +18341,9 @@
         <v>635</v>
       </c>
       <c r="X115"/>
-      <c r="Y115" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y115"/>
       <c r="Z115" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA115"/>
       <c r="AB115"/>
@@ -18542,7 +18369,7 @@
       <c r="AT115"/>
       <c r="AU115"/>
       <c r="AV115" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW115" t="s">
         <v>506</v>
@@ -18551,7 +18378,7 @@
       <c r="AY115"/>
       <c r="AZ115"/>
       <c r="BA115" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB115"/>
       <c r="BC115"/>
@@ -18566,19 +18393,19 @@
       <c r="BL115"/>
       <c r="BM115"/>
       <c r="BN115" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO115" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP115" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ115" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR115" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS115"/>
       <c r="BT115"/>
@@ -18588,13 +18415,13 @@
       <c r="BX115"/>
       <c r="BY115"/>
       <c r="BZ115" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA115" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB115" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC115"/>
       <c r="CD115"/>
@@ -18675,11 +18502,9 @@
         <v>635</v>
       </c>
       <c r="X116"/>
-      <c r="Y116" t="s">
-        <v>648</v>
-      </c>
+      <c r="Y116"/>
       <c r="Z116" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA116"/>
       <c r="AB116"/>
@@ -18705,7 +18530,7 @@
       <c r="AT116"/>
       <c r="AU116"/>
       <c r="AV116" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW116" t="s">
         <v>506</v>
@@ -18714,7 +18539,7 @@
       <c r="AY116"/>
       <c r="AZ116"/>
       <c r="BA116" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB116"/>
       <c r="BC116"/>
@@ -18729,19 +18554,19 @@
       <c r="BL116"/>
       <c r="BM116"/>
       <c r="BN116" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO116" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP116" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ116" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR116" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS116"/>
       <c r="BT116"/>
@@ -18751,13 +18576,13 @@
       <c r="BX116"/>
       <c r="BY116"/>
       <c r="BZ116" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA116" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB116" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC116"/>
       <c r="CD116"/>
@@ -18838,11 +18663,9 @@
         <v>635</v>
       </c>
       <c r="X117"/>
-      <c r="Y117" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y117"/>
       <c r="Z117" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA117"/>
       <c r="AB117"/>
@@ -18868,7 +18691,7 @@
       <c r="AT117"/>
       <c r="AU117"/>
       <c r="AV117" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW117" t="s">
         <v>506</v>
@@ -18877,7 +18700,7 @@
       <c r="AY117"/>
       <c r="AZ117"/>
       <c r="BA117" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB117"/>
       <c r="BC117"/>
@@ -18892,19 +18715,19 @@
       <c r="BL117"/>
       <c r="BM117"/>
       <c r="BN117" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO117" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP117" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ117" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR117" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS117"/>
       <c r="BT117"/>
@@ -18914,13 +18737,13 @@
       <c r="BX117"/>
       <c r="BY117"/>
       <c r="BZ117" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA117" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB117" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC117"/>
       <c r="CD117"/>
@@ -19001,11 +18824,9 @@
         <v>635</v>
       </c>
       <c r="X118"/>
-      <c r="Y118" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y118"/>
       <c r="Z118" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA118"/>
       <c r="AB118"/>
@@ -19031,7 +18852,7 @@
       <c r="AT118"/>
       <c r="AU118"/>
       <c r="AV118" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW118" t="s">
         <v>506</v>
@@ -19040,7 +18861,7 @@
       <c r="AY118"/>
       <c r="AZ118"/>
       <c r="BA118" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB118"/>
       <c r="BC118"/>
@@ -19055,19 +18876,19 @@
       <c r="BL118"/>
       <c r="BM118"/>
       <c r="BN118" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO118" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP118" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ118" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR118" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS118"/>
       <c r="BT118"/>
@@ -19077,13 +18898,13 @@
       <c r="BX118"/>
       <c r="BY118"/>
       <c r="BZ118" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA118" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB118" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC118"/>
       <c r="CD118"/>
@@ -19164,11 +18985,9 @@
         <v>635</v>
       </c>
       <c r="X119"/>
-      <c r="Y119" t="s">
-        <v>648</v>
-      </c>
+      <c r="Y119"/>
       <c r="Z119" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA119"/>
       <c r="AB119"/>
@@ -19194,7 +19013,7 @@
       <c r="AT119"/>
       <c r="AU119"/>
       <c r="AV119" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW119" t="s">
         <v>506</v>
@@ -19203,7 +19022,7 @@
       <c r="AY119"/>
       <c r="AZ119"/>
       <c r="BA119" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB119"/>
       <c r="BC119"/>
@@ -19218,19 +19037,19 @@
       <c r="BL119"/>
       <c r="BM119"/>
       <c r="BN119" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO119" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP119" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ119" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR119" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS119"/>
       <c r="BT119"/>
@@ -19240,13 +19059,13 @@
       <c r="BX119"/>
       <c r="BY119"/>
       <c r="BZ119" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA119" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB119" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC119"/>
       <c r="CD119"/>
@@ -19327,11 +19146,9 @@
         <v>635</v>
       </c>
       <c r="X120"/>
-      <c r="Y120" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y120"/>
       <c r="Z120" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA120"/>
       <c r="AB120"/>
@@ -19357,7 +19174,7 @@
       <c r="AT120"/>
       <c r="AU120"/>
       <c r="AV120" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW120" t="s">
         <v>506</v>
@@ -19366,7 +19183,7 @@
       <c r="AY120"/>
       <c r="AZ120"/>
       <c r="BA120" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB120"/>
       <c r="BC120"/>
@@ -19381,19 +19198,19 @@
       <c r="BL120"/>
       <c r="BM120"/>
       <c r="BN120" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO120" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP120" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ120" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR120" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS120"/>
       <c r="BT120"/>
@@ -19403,13 +19220,13 @@
       <c r="BX120"/>
       <c r="BY120"/>
       <c r="BZ120" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA120" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB120" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC120"/>
       <c r="CD120"/>
@@ -19486,11 +19303,9 @@
         <v>635</v>
       </c>
       <c r="X121"/>
-      <c r="Y121" t="s">
-        <v>649</v>
-      </c>
+      <c r="Y121"/>
       <c r="Z121" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA121"/>
       <c r="AB121"/>
@@ -19534,19 +19349,19 @@
       <c r="BL121"/>
       <c r="BM121"/>
       <c r="BN121" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO121" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP121" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ121" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR121" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS121"/>
       <c r="BT121"/>
@@ -19556,13 +19371,13 @@
       <c r="BX121"/>
       <c r="BY121"/>
       <c r="BZ121" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA121" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB121" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC121"/>
       <c r="CD121"/>
@@ -19643,11 +19458,9 @@
         <v>635</v>
       </c>
       <c r="X122"/>
-      <c r="Y122" t="s">
-        <v>647</v>
-      </c>
+      <c r="Y122"/>
       <c r="Z122" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA122"/>
       <c r="AB122"/>
@@ -19673,7 +19486,7 @@
       <c r="AT122"/>
       <c r="AU122"/>
       <c r="AV122" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW122" t="s">
         <v>506</v>
@@ -19682,7 +19495,7 @@
       <c r="AY122"/>
       <c r="AZ122"/>
       <c r="BA122" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB122"/>
       <c r="BC122"/>
@@ -19697,19 +19510,19 @@
       <c r="BL122"/>
       <c r="BM122"/>
       <c r="BN122" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO122" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP122" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ122" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR122" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS122"/>
       <c r="BT122"/>
@@ -19719,13 +19532,13 @@
       <c r="BX122"/>
       <c r="BY122"/>
       <c r="BZ122" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA122" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB122" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC122"/>
       <c r="CD122"/>
@@ -19806,11 +19619,9 @@
         <v>634</v>
       </c>
       <c r="X123"/>
-      <c r="Y123" t="s">
-        <v>647</v>
-      </c>
+      <c r="Y123"/>
       <c r="Z123" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA123"/>
       <c r="AB123"/>
@@ -19836,7 +19647,7 @@
       <c r="AT123"/>
       <c r="AU123"/>
       <c r="AV123" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW123" t="s">
         <v>506</v>
@@ -19845,7 +19656,7 @@
       <c r="AY123"/>
       <c r="AZ123"/>
       <c r="BA123" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB123"/>
       <c r="BC123"/>
@@ -19860,19 +19671,19 @@
       <c r="BL123"/>
       <c r="BM123"/>
       <c r="BN123" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO123" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP123" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ123" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR123" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS123"/>
       <c r="BT123"/>
@@ -19882,13 +19693,13 @@
       <c r="BX123"/>
       <c r="BY123"/>
       <c r="BZ123" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA123" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB123" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC123"/>
       <c r="CD123"/>
@@ -19969,11 +19780,9 @@
         <v>635</v>
       </c>
       <c r="X124"/>
-      <c r="Y124" t="s">
-        <v>647</v>
-      </c>
+      <c r="Y124"/>
       <c r="Z124" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA124"/>
       <c r="AB124"/>
@@ -19999,7 +19808,7 @@
       <c r="AT124"/>
       <c r="AU124"/>
       <c r="AV124" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW124" t="s">
         <v>506</v>
@@ -20008,7 +19817,7 @@
       <c r="AY124"/>
       <c r="AZ124"/>
       <c r="BA124" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB124"/>
       <c r="BC124"/>
@@ -20023,19 +19832,19 @@
       <c r="BL124"/>
       <c r="BM124"/>
       <c r="BN124" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO124" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP124" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ124" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR124" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS124"/>
       <c r="BT124"/>
@@ -20045,13 +19854,13 @@
       <c r="BX124"/>
       <c r="BY124"/>
       <c r="BZ124" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA124" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB124" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC124"/>
       <c r="CD124"/>
@@ -20132,11 +19941,9 @@
         <v>635</v>
       </c>
       <c r="X125"/>
-      <c r="Y125" t="s">
-        <v>647</v>
-      </c>
+      <c r="Y125"/>
       <c r="Z125" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA125"/>
       <c r="AB125"/>
@@ -20162,7 +19969,7 @@
       <c r="AT125"/>
       <c r="AU125"/>
       <c r="AV125" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW125" t="s">
         <v>506</v>
@@ -20171,7 +19978,7 @@
       <c r="AY125"/>
       <c r="AZ125"/>
       <c r="BA125" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB125"/>
       <c r="BC125"/>
@@ -20186,19 +19993,19 @@
       <c r="BL125"/>
       <c r="BM125"/>
       <c r="BN125" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO125" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP125" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ125" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR125" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS125"/>
       <c r="BT125"/>
@@ -20208,13 +20015,13 @@
       <c r="BX125"/>
       <c r="BY125"/>
       <c r="BZ125" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA125" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB125" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC125"/>
       <c r="CD125"/>
@@ -20295,11 +20102,9 @@
         <v>634</v>
       </c>
       <c r="X126"/>
-      <c r="Y126" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y126"/>
       <c r="Z126" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA126"/>
       <c r="AB126"/>
@@ -20325,7 +20130,7 @@
       <c r="AT126"/>
       <c r="AU126"/>
       <c r="AV126" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW126" t="s">
         <v>506</v>
@@ -20334,7 +20139,7 @@
       <c r="AY126"/>
       <c r="AZ126"/>
       <c r="BA126" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB126"/>
       <c r="BC126"/>
@@ -20442,11 +20247,9 @@
         <v>635</v>
       </c>
       <c r="X127"/>
-      <c r="Y127" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y127"/>
       <c r="Z127" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA127"/>
       <c r="AB127"/>
@@ -20472,7 +20275,7 @@
       <c r="AT127"/>
       <c r="AU127"/>
       <c r="AV127" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW127" t="s">
         <v>506</v>
@@ -20481,7 +20284,7 @@
       <c r="AY127"/>
       <c r="AZ127"/>
       <c r="BA127" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB127"/>
       <c r="BC127"/>
@@ -20496,19 +20299,19 @@
       <c r="BL127"/>
       <c r="BM127"/>
       <c r="BN127" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO127" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP127" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ127" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR127" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS127"/>
       <c r="BT127"/>
@@ -20518,13 +20321,13 @@
       <c r="BX127"/>
       <c r="BY127"/>
       <c r="BZ127" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA127" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB127" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC127"/>
       <c r="CD127"/>
@@ -20605,11 +20408,9 @@
         <v>635</v>
       </c>
       <c r="X128"/>
-      <c r="Y128" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y128"/>
       <c r="Z128" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA128"/>
       <c r="AB128"/>
@@ -20635,7 +20436,7 @@
       <c r="AT128"/>
       <c r="AU128"/>
       <c r="AV128" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW128" t="s">
         <v>506</v>
@@ -20644,7 +20445,7 @@
       <c r="AY128"/>
       <c r="AZ128"/>
       <c r="BA128" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB128"/>
       <c r="BC128"/>
@@ -20659,19 +20460,19 @@
       <c r="BL128"/>
       <c r="BM128"/>
       <c r="BN128" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO128" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP128" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ128" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR128" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS128"/>
       <c r="BT128"/>
@@ -20681,13 +20482,13 @@
       <c r="BX128"/>
       <c r="BY128"/>
       <c r="BZ128" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA128" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB128" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC128"/>
       <c r="CD128"/>
@@ -20768,11 +20569,9 @@
         <v>635</v>
       </c>
       <c r="X129"/>
-      <c r="Y129" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y129"/>
       <c r="Z129" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA129"/>
       <c r="AB129"/>
@@ -20798,7 +20597,7 @@
       <c r="AT129"/>
       <c r="AU129"/>
       <c r="AV129" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW129" t="s">
         <v>506</v>
@@ -20807,7 +20606,7 @@
       <c r="AY129"/>
       <c r="AZ129"/>
       <c r="BA129" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB129"/>
       <c r="BC129"/>
@@ -20822,19 +20621,19 @@
       <c r="BL129"/>
       <c r="BM129"/>
       <c r="BN129" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO129" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP129" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ129" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR129" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS129"/>
       <c r="BT129"/>
@@ -20844,13 +20643,13 @@
       <c r="BX129"/>
       <c r="BY129"/>
       <c r="BZ129" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA129" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB129" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC129"/>
       <c r="CD129"/>
@@ -20927,11 +20726,9 @@
         <v>635</v>
       </c>
       <c r="X130"/>
-      <c r="Y130" t="s">
-        <v>646</v>
-      </c>
+      <c r="Y130"/>
       <c r="Z130" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA130"/>
       <c r="AB130"/>
@@ -20944,10 +20741,10 @@
       </c>
       <c r="AH130"/>
       <c r="AI130" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ130" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK130"/>
       <c r="AL130"/>
@@ -20979,19 +20776,19 @@
       <c r="BL130"/>
       <c r="BM130"/>
       <c r="BN130" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO130" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP130" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ130" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR130" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS130"/>
       <c r="BT130"/>
@@ -21001,13 +20798,13 @@
       <c r="BX130"/>
       <c r="BY130"/>
       <c r="BZ130" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA130" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB130" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC130"/>
       <c r="CD130"/>
@@ -21084,11 +20881,9 @@
         <v>635</v>
       </c>
       <c r="X131"/>
-      <c r="Y131" t="s">
-        <v>647</v>
-      </c>
+      <c r="Y131"/>
       <c r="Z131" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA131"/>
       <c r="AB131"/>
@@ -21132,19 +20927,19 @@
       <c r="BL131"/>
       <c r="BM131"/>
       <c r="BN131" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO131" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP131" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ131" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR131" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS131"/>
       <c r="BT131"/>
@@ -21154,13 +20949,13 @@
       <c r="BX131"/>
       <c r="BY131"/>
       <c r="BZ131" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA131" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB131" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC131"/>
       <c r="CD131"/>
@@ -21237,11 +21032,9 @@
         <v>635</v>
       </c>
       <c r="X132"/>
-      <c r="Y132" t="s">
-        <v>647</v>
-      </c>
+      <c r="Y132"/>
       <c r="Z132" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA132"/>
       <c r="AB132"/>
@@ -21285,19 +21078,19 @@
       <c r="BL132"/>
       <c r="BM132"/>
       <c r="BN132" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO132" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP132" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ132" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR132" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS132"/>
       <c r="BT132"/>
@@ -21307,13 +21100,13 @@
       <c r="BX132"/>
       <c r="BY132"/>
       <c r="BZ132" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA132" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB132" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC132"/>
       <c r="CD132"/>
@@ -21390,11 +21183,9 @@
         <v>634</v>
       </c>
       <c r="X133"/>
-      <c r="Y133" t="s">
-        <v>638</v>
-      </c>
+      <c r="Y133"/>
       <c r="Z133" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA133"/>
       <c r="AB133"/>
@@ -21407,10 +21198,10 @@
       </c>
       <c r="AH133"/>
       <c r="AI133" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ133" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK133"/>
       <c r="AL133"/>
@@ -21442,19 +21233,19 @@
       <c r="BL133"/>
       <c r="BM133"/>
       <c r="BN133" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO133" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP133" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ133" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR133" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS133"/>
       <c r="BT133"/>
@@ -21464,13 +21255,13 @@
       <c r="BX133"/>
       <c r="BY133"/>
       <c r="BZ133" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA133" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB133" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC133"/>
       <c r="CD133"/>
@@ -21547,11 +21338,9 @@
         <v>506</v>
       </c>
       <c r="X134"/>
-      <c r="Y134" t="s">
-        <v>647</v>
-      </c>
+      <c r="Y134"/>
       <c r="Z134" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA134"/>
       <c r="AB134"/>
@@ -21564,10 +21353,10 @@
       </c>
       <c r="AH134"/>
       <c r="AI134" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ134" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK134"/>
       <c r="AL134"/>
@@ -21688,11 +21477,9 @@
         <v>634</v>
       </c>
       <c r="X135"/>
-      <c r="Y135" t="s">
-        <v>647</v>
-      </c>
+      <c r="Y135"/>
       <c r="Z135" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA135"/>
       <c r="AB135"/>
@@ -21705,10 +21492,10 @@
       </c>
       <c r="AH135"/>
       <c r="AI135" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ135" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK135"/>
       <c r="AL135"/>
@@ -21740,19 +21527,19 @@
       <c r="BL135"/>
       <c r="BM135"/>
       <c r="BN135" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO135" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP135" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ135" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR135" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS135"/>
       <c r="BT135"/>
@@ -21762,13 +21549,13 @@
       <c r="BX135"/>
       <c r="BY135"/>
       <c r="BZ135" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA135" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB135" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC135"/>
       <c r="CD135"/>
@@ -21845,11 +21632,9 @@
         <v>635</v>
       </c>
       <c r="X136"/>
-      <c r="Y136" t="s">
-        <v>647</v>
-      </c>
+      <c r="Y136"/>
       <c r="Z136" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA136"/>
       <c r="AB136"/>
@@ -21862,10 +21647,10 @@
       </c>
       <c r="AH136"/>
       <c r="AI136" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ136" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK136"/>
       <c r="AL136"/>
@@ -21897,19 +21682,19 @@
       <c r="BL136"/>
       <c r="BM136"/>
       <c r="BN136" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO136" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP136" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ136" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR136" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS136"/>
       <c r="BT136"/>
@@ -21919,13 +21704,13 @@
       <c r="BX136"/>
       <c r="BY136"/>
       <c r="BZ136" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA136" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB136" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC136"/>
       <c r="CD136"/>
@@ -22006,11 +21791,9 @@
         <v>634</v>
       </c>
       <c r="X137"/>
-      <c r="Y137" t="s">
-        <v>640</v>
-      </c>
+      <c r="Y137"/>
       <c r="Z137" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA137"/>
       <c r="AB137"/>
@@ -22036,7 +21819,7 @@
       <c r="AT137"/>
       <c r="AU137"/>
       <c r="AV137" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW137" t="s">
         <v>506</v>
@@ -22044,7 +21827,9 @@
       <c r="AX137"/>
       <c r="AY137"/>
       <c r="AZ137"/>
-      <c r="BA137"/>
+      <c r="BA137" t="s">
+        <v>641</v>
+      </c>
       <c r="BB137"/>
       <c r="BC137"/>
       <c r="BD137"/>
@@ -22058,19 +21843,19 @@
       <c r="BL137"/>
       <c r="BM137"/>
       <c r="BN137" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO137" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP137" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ137" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR137" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS137"/>
       <c r="BT137"/>
@@ -22080,13 +21865,13 @@
       <c r="BX137"/>
       <c r="BY137"/>
       <c r="BZ137" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA137" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB137" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC137"/>
       <c r="CD137"/>
@@ -22270,11 +22055,9 @@
         <v>635</v>
       </c>
       <c r="X139"/>
-      <c r="Y139" t="s">
-        <v>640</v>
-      </c>
+      <c r="Y139"/>
       <c r="Z139" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA139"/>
       <c r="AB139"/>
@@ -22287,10 +22070,10 @@
       </c>
       <c r="AH139"/>
       <c r="AI139" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ139" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK139"/>
       <c r="AL139"/>
@@ -22322,19 +22105,19 @@
       <c r="BL139"/>
       <c r="BM139"/>
       <c r="BN139" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO139" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP139" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ139" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR139" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS139"/>
       <c r="BT139"/>
@@ -22344,13 +22127,13 @@
       <c r="BX139"/>
       <c r="BY139"/>
       <c r="BZ139" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA139" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB139" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC139"/>
       <c r="CD139"/>
@@ -22427,11 +22210,9 @@
         <v>634</v>
       </c>
       <c r="X140"/>
-      <c r="Y140" t="s">
-        <v>640</v>
-      </c>
+      <c r="Y140"/>
       <c r="Z140" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA140"/>
       <c r="AB140"/>
@@ -22444,10 +22225,10 @@
       </c>
       <c r="AH140"/>
       <c r="AI140" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ140" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK140"/>
       <c r="AL140"/>
@@ -22568,11 +22349,9 @@
         <v>634</v>
       </c>
       <c r="X141"/>
-      <c r="Y141" t="s">
-        <v>640</v>
-      </c>
+      <c r="Y141"/>
       <c r="Z141" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA141"/>
       <c r="AB141"/>
@@ -22585,10 +22364,10 @@
       </c>
       <c r="AH141"/>
       <c r="AI141" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ141" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK141"/>
       <c r="AL141"/>
@@ -22620,19 +22399,19 @@
       <c r="BL141"/>
       <c r="BM141"/>
       <c r="BN141" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO141" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP141" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ141" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR141" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS141"/>
       <c r="BT141"/>
@@ -22642,13 +22421,13 @@
       <c r="BX141"/>
       <c r="BY141"/>
       <c r="BZ141" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA141" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB141" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC141"/>
       <c r="CD141"/>
@@ -22725,11 +22504,9 @@
         <v>635</v>
       </c>
       <c r="X142"/>
-      <c r="Y142" t="s">
-        <v>640</v>
-      </c>
+      <c r="Y142"/>
       <c r="Z142" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA142"/>
       <c r="AB142"/>
@@ -22742,10 +22519,10 @@
       </c>
       <c r="AH142"/>
       <c r="AI142" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ142" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK142"/>
       <c r="AL142"/>
@@ -22777,19 +22554,19 @@
       <c r="BL142"/>
       <c r="BM142"/>
       <c r="BN142" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO142" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP142" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ142" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR142" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS142"/>
       <c r="BT142"/>
@@ -22799,13 +22576,13 @@
       <c r="BX142"/>
       <c r="BY142"/>
       <c r="BZ142" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA142" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB142" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC142"/>
       <c r="CD142"/>
@@ -22882,11 +22659,9 @@
         <v>635</v>
       </c>
       <c r="X143"/>
-      <c r="Y143" t="s">
-        <v>640</v>
-      </c>
+      <c r="Y143"/>
       <c r="Z143" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA143"/>
       <c r="AB143"/>
@@ -22899,10 +22674,10 @@
       </c>
       <c r="AH143"/>
       <c r="AI143" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ143" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK143"/>
       <c r="AL143"/>
@@ -22934,19 +22709,19 @@
       <c r="BL143"/>
       <c r="BM143"/>
       <c r="BN143" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO143" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP143" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ143" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR143" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS143"/>
       <c r="BT143"/>
@@ -22956,13 +22731,13 @@
       <c r="BX143"/>
       <c r="BY143"/>
       <c r="BZ143" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA143" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB143" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC143"/>
       <c r="CD143"/>
@@ -23039,11 +22814,9 @@
         <v>506</v>
       </c>
       <c r="X144"/>
-      <c r="Y144" t="s">
-        <v>647</v>
-      </c>
+      <c r="Y144"/>
       <c r="Z144" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA144"/>
       <c r="AB144"/>
@@ -23056,10 +22829,10 @@
       </c>
       <c r="AH144"/>
       <c r="AI144" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ144" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK144"/>
       <c r="AL144"/>
@@ -23180,11 +22953,9 @@
         <v>634</v>
       </c>
       <c r="X145"/>
-      <c r="Y145" t="s">
-        <v>638</v>
-      </c>
+      <c r="Y145"/>
       <c r="Z145" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA145"/>
       <c r="AB145"/>
@@ -23197,10 +22968,10 @@
       </c>
       <c r="AH145"/>
       <c r="AI145" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ145" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK145"/>
       <c r="AL145"/>
@@ -23232,19 +23003,19 @@
       <c r="BL145"/>
       <c r="BM145"/>
       <c r="BN145" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO145" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP145" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ145" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR145" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS145"/>
       <c r="BT145"/>
@@ -23254,13 +23025,13 @@
       <c r="BX145"/>
       <c r="BY145"/>
       <c r="BZ145" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA145" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB145" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC145"/>
       <c r="CD145"/>
@@ -23341,11 +23112,9 @@
         <v>636</v>
       </c>
       <c r="X146"/>
-      <c r="Y146" t="s">
-        <v>640</v>
-      </c>
+      <c r="Y146"/>
       <c r="Z146" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA146"/>
       <c r="AB146"/>
@@ -23358,10 +23127,10 @@
       </c>
       <c r="AH146"/>
       <c r="AI146" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ146" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK146"/>
       <c r="AL146"/>
@@ -23375,7 +23144,7 @@
       <c r="AT146"/>
       <c r="AU146"/>
       <c r="AV146" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW146" t="s">
         <v>506</v>
@@ -23383,7 +23152,9 @@
       <c r="AX146"/>
       <c r="AY146"/>
       <c r="AZ146"/>
-      <c r="BA146"/>
+      <c r="BA146" t="s">
+        <v>642</v>
+      </c>
       <c r="BB146"/>
       <c r="BC146"/>
       <c r="BD146"/>
@@ -23593,11 +23364,9 @@
         <v>635</v>
       </c>
       <c r="X148"/>
-      <c r="Y148" t="s">
-        <v>640</v>
-      </c>
+      <c r="Y148"/>
       <c r="Z148" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA148"/>
       <c r="AB148"/>
@@ -23641,19 +23410,19 @@
       <c r="BL148"/>
       <c r="BM148"/>
       <c r="BN148" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO148" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP148" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ148" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR148" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS148"/>
       <c r="BT148"/>
@@ -23663,13 +23432,13 @@
       <c r="BX148"/>
       <c r="BY148"/>
       <c r="BZ148" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA148" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB148" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC148"/>
       <c r="CD148"/>
@@ -23853,11 +23622,9 @@
         <v>636</v>
       </c>
       <c r="X150"/>
-      <c r="Y150" t="s">
-        <v>640</v>
-      </c>
+      <c r="Y150"/>
       <c r="Z150" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA150"/>
       <c r="AB150"/>
@@ -23870,10 +23637,10 @@
       </c>
       <c r="AH150"/>
       <c r="AI150" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ150" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK150"/>
       <c r="AL150"/>
@@ -23994,11 +23761,9 @@
         <v>506</v>
       </c>
       <c r="X151"/>
-      <c r="Y151" t="s">
-        <v>640</v>
-      </c>
+      <c r="Y151"/>
       <c r="Z151" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA151"/>
       <c r="AB151"/>
@@ -24011,10 +23776,10 @@
       </c>
       <c r="AH151"/>
       <c r="AI151" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ151" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK151"/>
       <c r="AL151"/>
@@ -24135,11 +23900,9 @@
         <v>634</v>
       </c>
       <c r="X152"/>
-      <c r="Y152" t="s">
-        <v>640</v>
-      </c>
+      <c r="Y152"/>
       <c r="Z152" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA152"/>
       <c r="AB152"/>
@@ -24183,19 +23946,19 @@
       <c r="BL152"/>
       <c r="BM152"/>
       <c r="BN152" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO152" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP152" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ152" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR152" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS152"/>
       <c r="BT152"/>
@@ -24205,13 +23968,13 @@
       <c r="BX152"/>
       <c r="BY152"/>
       <c r="BZ152" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA152" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB152" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC152"/>
       <c r="CD152"/>
@@ -24395,11 +24158,9 @@
         <v>635</v>
       </c>
       <c r="X154"/>
-      <c r="Y154" t="s">
-        <v>640</v>
-      </c>
+      <c r="Y154"/>
       <c r="Z154" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA154"/>
       <c r="AB154"/>
@@ -24443,19 +24204,19 @@
       <c r="BL154"/>
       <c r="BM154"/>
       <c r="BN154" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO154" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP154" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ154" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR154" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS154"/>
       <c r="BT154"/>
@@ -24465,13 +24226,13 @@
       <c r="BX154"/>
       <c r="BY154"/>
       <c r="BZ154" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA154" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB154" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC154"/>
       <c r="CD154"/>
@@ -24552,11 +24313,9 @@
         <v>635</v>
       </c>
       <c r="X155"/>
-      <c r="Y155" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y155"/>
       <c r="Z155" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA155"/>
       <c r="AB155"/>
@@ -24582,7 +24341,7 @@
       <c r="AT155"/>
       <c r="AU155"/>
       <c r="AV155" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AW155" t="s">
         <v>506</v>
@@ -24591,7 +24350,7 @@
       <c r="AY155"/>
       <c r="AZ155"/>
       <c r="BA155" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="BB155"/>
       <c r="BC155"/>
@@ -24606,19 +24365,19 @@
       <c r="BL155"/>
       <c r="BM155"/>
       <c r="BN155" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO155" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP155" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ155" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR155" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS155"/>
       <c r="BT155"/>
@@ -24628,13 +24387,13 @@
       <c r="BX155"/>
       <c r="BY155"/>
       <c r="BZ155" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA155" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB155" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC155"/>
       <c r="CD155"/>
@@ -24818,11 +24577,9 @@
         <v>635</v>
       </c>
       <c r="X157"/>
-      <c r="Y157" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y157"/>
       <c r="Z157" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA157"/>
       <c r="AB157"/>
@@ -24835,10 +24592,10 @@
       </c>
       <c r="AH157"/>
       <c r="AI157" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AJ157" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AK157"/>
       <c r="AL157"/>
@@ -24870,19 +24627,19 @@
       <c r="BL157"/>
       <c r="BM157"/>
       <c r="BN157" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO157" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP157" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ157" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR157" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS157"/>
       <c r="BT157"/>
@@ -24892,13 +24649,13 @@
       <c r="BX157"/>
       <c r="BY157"/>
       <c r="BZ157" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA157" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB157" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC157"/>
       <c r="CD157"/>
@@ -24975,11 +24732,9 @@
         <v>506</v>
       </c>
       <c r="X158"/>
-      <c r="Y158" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y158"/>
       <c r="Z158" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA158"/>
       <c r="AB158"/>
@@ -25112,11 +24867,9 @@
         <v>635</v>
       </c>
       <c r="X159"/>
-      <c r="Y159" t="s">
-        <v>639</v>
-      </c>
+      <c r="Y159"/>
       <c r="Z159" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AA159"/>
       <c r="AB159"/>
@@ -25160,19 +24913,19 @@
       <c r="BL159"/>
       <c r="BM159"/>
       <c r="BN159" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BO159" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BP159" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BQ159" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="BR159" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="BS159"/>
       <c r="BT159"/>
@@ -25182,13 +24935,13 @@
       <c r="BX159"/>
       <c r="BY159"/>
       <c r="BZ159" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CA159" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="CB159" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="CC159"/>
       <c r="CD159"/>
